--- a/Planung/03_Design/Projektmanagement_Design.xlsx
+++ b/Planung/03_Design/Projektmanagement_Design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Projektmanagement</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Bis und mit Meilenstein Design</t>
-  </si>
-  <si>
-    <t>&lt;----</t>
   </si>
   <si>
     <t>Gesamt Total</t>
@@ -677,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -989,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -1017,15 +1014,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20">
+    <row r="38" spans="1:4" ht="20">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1061,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1075,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1109,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1137,7 +1131,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
@@ -1145,10 +1139,10 @@
         <v>23</v>
       </c>
       <c r="C47" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D47" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1158,30 +1152,30 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7">
         <f>SUM(C40:C48)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D49" s="7">
         <f>SUM(D40:D48)</f>
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6">
         <f>SUM(C49,C35,C19)</f>
-        <v>54.5</v>
+        <v>60.5</v>
       </c>
       <c r="D52" s="6">
         <f>SUM(D49,D35,D19)</f>
-        <v>54.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="20">
       <c r="A55" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1217,7 +1211,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -1229,10 +1223,10 @@
         <v>10</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D59" s="3"/>
     </row>
@@ -1241,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60" s="3">
         <v>3</v>
@@ -1253,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
@@ -1265,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1278,7 +1272,7 @@
       <c r="B64" s="4"/>
       <c r="C64" s="4">
         <f>SUM(C57:C63)</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D64" s="4">
         <f>SUM(D57:D63)</f>

--- a/Planung/03_Design/Projektmanagement_Design.xlsx
+++ b/Planung/03_Design/Projektmanagement_Design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>Projektmanagement</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Zusammenfassung</t>
+  </si>
+  <si>
+    <t>SS / FB</t>
+  </si>
+  <si>
+    <t>alle</t>
   </si>
 </sst>
 </file>
@@ -255,7 +261,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -263,6 +269,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -282,13 +292,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Link" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
@@ -296,6 +308,8 @@
     <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Schlecht" xfId="6" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -676,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1063,7 +1077,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>25</v>
@@ -1077,7 +1091,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>26</v>
@@ -1091,7 +1105,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>27</v>
@@ -1133,7 +1147,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>23</v>
